--- a/TestData/Web_POS/Order/add_to_cart_order_test_data.xlsx
+++ b/TestData/Web_POS/Order/add_to_cart_order_test_data.xlsx
@@ -138,46 +138,55 @@
     <t>ATC_10</t>
   </si>
   <si>
+    <t>ATC_11</t>
+  </si>
+  <si>
+    <t>ATC_12</t>
+  </si>
+  <si>
+    <t>ATC_13</t>
+  </si>
+  <si>
     <t>Alexa67 : 1.8</t>
   </si>
   <si>
-    <t>ATC_11</t>
+    <t>ATC_14</t>
   </si>
   <si>
     <t>Alexa67 : 1.9</t>
   </si>
   <si>
-    <t>ATC_12</t>
+    <t>ATC_15</t>
   </si>
   <si>
     <t>Alexa67 : 1.10</t>
   </si>
   <si>
-    <t>ATC_13</t>
+    <t>ATC_16</t>
   </si>
   <si>
     <t>Alexa67 : 1.11</t>
   </si>
   <si>
-    <t>TC_32</t>
+    <t>ATC_17</t>
   </si>
   <si>
     <t>Alexa67 : 1.12</t>
   </si>
   <si>
-    <t>TC_33</t>
+    <t>ATC_18</t>
   </si>
   <si>
     <t>Alexa67 : 1.13</t>
   </si>
   <si>
-    <t>TC_34</t>
-  </si>
-  <si>
-    <t>TC_35</t>
-  </si>
-  <si>
-    <t>TC_36</t>
+    <t>ATC_19</t>
+  </si>
+  <si>
+    <t>ATC_20</t>
+  </si>
+  <si>
+    <t>ATC_21</t>
   </si>
 </sst>
 </file>
@@ -225,8 +234,25 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
+    <border>
+      <left>
+        <color indexed="64"/>
+      </left>
+      <right>
+        <color indexed="64"/>
+      </right>
+      <top>
+        <color indexed="64"/>
+      </top>
+      <bottom>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal>
+        <color indexed="64"/>
+      </diagonal>
+    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -239,16 +265,24 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -472,8 +506,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A11">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -1006,7 +1040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" ht="14.25">
+    <row r="11" ht="28.5" customHeight="1">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1029,13 +1063,13 @@
         <v>1000</v>
       </c>
       <c r="H11">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>22</v>
@@ -1056,9 +1090,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" ht="14.25">
+    <row r="12" ht="28.5" customHeight="1">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
@@ -1079,13 +1113,13 @@
         <v>1000</v>
       </c>
       <c r="H12">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>22</v>
@@ -1106,9 +1140,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" ht="14.25">
+    <row r="13" ht="28.5" customHeight="1">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
@@ -1129,13 +1163,13 @@
         <v>1000</v>
       </c>
       <c r="H13">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>22</v>
@@ -1156,150 +1190,150 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" ht="14.25">
+    <row r="14" ht="28.5" customHeight="1">
       <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G14">
+      <c r="D14" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4">
+        <v>123456</v>
+      </c>
+      <c r="G14" s="5">
         <v>1000</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <v>600</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="J14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="7">
         <v>45384</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" ht="14.25">
+    <row r="15" ht="28.5" customHeight="1">
       <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="4">
+        <v>123456</v>
+      </c>
+      <c r="G15" s="5">
         <v>1000</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <v>600</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="J15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="7">
         <v>45384</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" ht="14.25">
+    <row r="16" ht="28.5" customHeight="1">
       <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G16">
+      <c r="D16" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4">
+        <v>123456</v>
+      </c>
+      <c r="G16" s="5">
         <v>1000</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="5">
         <v>600</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="3">
+      <c r="J16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="7">
         <v>45384</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P16" t="s">
@@ -1308,48 +1342,48 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G17">
+      <c r="D17" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="4">
+        <v>123456</v>
+      </c>
+      <c r="G17" s="5">
         <v>1000</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
         <v>600</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="J17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="7">
         <v>45384</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P17" t="s">
@@ -1358,48 +1392,48 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="4">
+        <v>123456</v>
+      </c>
+      <c r="G18" s="5">
         <v>1000</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <v>600</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="J18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="7">
         <v>45384</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P18" t="s">
@@ -1408,48 +1442,48 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="4">
+        <v>123456</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="5">
+        <v>600</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G19">
-        <v>1000</v>
-      </c>
-      <c r="H19">
-        <v>600</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="3">
+      <c r="K19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="7">
         <v>45384</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P19" t="s">
@@ -1457,40 +1491,154 @@
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="I20" s="1"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4">
+        <v>123456</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="5">
+        <v>600</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="I21" s="1"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="4">
+        <v>123456</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="5">
+        <v>600</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="I22" s="1"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="4">
+        <v>123456</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="5">
+        <v>600</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="23" ht="14.25">
       <c r="B23" s="2"/>
@@ -1515,10 +1663,6 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="5"/>
     </row>
     <row r="25" ht="14.25">
       <c r="B25" s="2"/>
@@ -1568,140 +1712,122 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" ht="12.75">
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="5"/>
-    </row>
-    <row r="30" ht="12.75">
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="5"/>
-    </row>
-    <row r="31" ht="12.75">
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="5"/>
-    </row>
-    <row r="32" ht="12.75">
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="5"/>
-    </row>
-    <row r="33" ht="12.75">
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="5"/>
-    </row>
-    <row r="34" ht="12.75">
-      <c r="U34" s="1"/>
+    <row r="29" ht="14.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="I29" s="1"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="I30" s="1"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="9"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="I31" s="1"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="I32" s="1"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="I33" s="1"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="I34" s="1"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
     </row>
     <row r="35" ht="12.75">
-      <c r="U35" s="1"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="9"/>
     </row>
     <row r="36" ht="12.75">
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="5"/>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="K38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="5"/>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="I39" s="1"/>
-      <c r="K39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="I40" s="1"/>
-      <c r="K40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="I41" s="1"/>
-      <c r="K41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="I42" s="1"/>
-      <c r="K42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="I43" s="1"/>
-      <c r="K43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="9"/>
+    </row>
+    <row r="37" ht="12.75">
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="9"/>
+    </row>
+    <row r="38" ht="12.75">
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="9"/>
+    </row>
+    <row r="39" ht="12.75">
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="9"/>
+    </row>
+    <row r="40" ht="12.75">
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" ht="12.75">
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42" ht="12.75">
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="9"/>
     </row>
     <row r="44" ht="14.25">
       <c r="B44" s="2"/>
@@ -1717,6 +1843,10 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="9"/>
     </row>
     <row r="45" ht="14.25">
       <c r="B45" s="2"/>
@@ -1770,7 +1900,9 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="I48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -1783,7 +1915,9 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="I49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
@@ -1796,7 +1930,9 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="I50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="K50" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
@@ -1809,7 +1945,9 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -1822,7 +1960,9 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="1"/>
+      <c r="K52" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -1835,7 +1975,9 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="I53" s="1"/>
-      <c r="K53" s="1"/>
+      <c r="K53" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
@@ -1971,47 +2113,119 @@
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-    </row>
-    <row r="65" ht="12.75">
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
-    </row>
-    <row r="66" ht="12.75">
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-    </row>
-    <row r="67" ht="12.75">
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-    </row>
-    <row r="68" ht="12.75">
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-    </row>
-    <row r="69" ht="12.75">
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-    </row>
-    <row r="70" ht="12.75">
+    <row r="64" ht="14.25">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="I64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="I65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="I66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="I67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="I68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="I69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
     </row>
-    <row r="71" ht="12.75"/>
-    <row r="72" ht="12.75"/>
-    <row r="73" ht="12.75"/>
-    <row r="74" ht="12.75"/>
-    <row r="75" ht="12.75"/>
-    <row r="76" ht="12.75"/>
+    <row r="71" ht="12.75">
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+    </row>
+    <row r="72" ht="12.75">
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+    </row>
+    <row r="73" ht="12.75">
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+    </row>
+    <row r="74" ht="12.75">
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+    </row>
+    <row r="75" ht="12.75">
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+    </row>
+    <row r="76" ht="12.75">
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+    </row>
     <row r="77" ht="12.75"/>
     <row r="78" ht="12.75"/>
     <row r="79" ht="12.75"/>
@@ -2036,6 +2250,12 @@
     <row r="98" ht="12.75"/>
     <row r="99" ht="12.75"/>
     <row r="100" ht="12.75"/>
+    <row r="101" ht="12.75"/>
+    <row r="102" ht="12.75"/>
+    <row r="103" ht="12.75"/>
+    <row r="104" ht="12.75"/>
+    <row r="105" ht="12.75"/>
+    <row r="106" ht="12.75"/>
   </sheetData>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/TestData/Web_POS/Order/add_to_cart_order_test_data.xlsx
+++ b/TestData/Web_POS/Order/add_to_cart_order_test_data.xlsx
@@ -72,13 +72,13 @@
     <t>ATC_01</t>
   </si>
   <si>
-    <t>307260624WoJ</t>
+    <t>307260624P3E</t>
   </si>
   <si>
     <t>zwshashank.agrawal@teampureplay.com</t>
   </si>
   <si>
-    <t>usertwo_p1</t>
+    <t>userone_p1</t>
   </si>
   <si>
     <t>Index9QA</t>
@@ -234,25 +234,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
-    <border>
-      <left>
-        <color indexed="64"/>
-      </left>
-      <right>
-        <color indexed="64"/>
-      </right>
-      <top>
-        <color indexed="64"/>
-      </top>
-      <bottom>
-        <color indexed="64"/>
-      </bottom>
-      <diagonal>
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -265,24 +248,16 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -506,8 +481,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A11">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -1194,46 +1169,46 @@
       <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4">
-        <v>123456</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G14">
         <v>1000</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14">
         <v>600</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="7">
+      <c r="K14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="3">
         <v>45384</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P14" t="s">
@@ -1244,46 +1219,46 @@
       <c r="A15" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="4">
-        <v>123456</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G15">
         <v>1000</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15">
         <v>600</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="7">
+      <c r="K15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="3">
         <v>45384</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P15" t="s">
@@ -1294,46 +1269,46 @@
       <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="4">
-        <v>123456</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G16">
         <v>1000</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16">
         <v>600</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="K16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="3">
         <v>45384</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P16" t="s">
@@ -1344,46 +1319,46 @@
       <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="4">
-        <v>123456</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G17">
         <v>1000</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17">
         <v>600</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="7">
+      <c r="K17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="3">
         <v>45384</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P17" t="s">
@@ -1394,46 +1369,46 @@
       <c r="A18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="4">
-        <v>123456</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G18">
         <v>1000</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18">
         <v>600</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="7">
+      <c r="K18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="3">
         <v>45384</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P18" t="s">
@@ -1444,46 +1419,46 @@
       <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="4">
-        <v>123456</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G19">
         <v>1000</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19">
         <v>600</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="7">
+      <c r="K19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="3">
         <v>45384</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P19" t="s">
@@ -1494,46 +1469,46 @@
       <c r="A20" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="4">
-        <v>123456</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G20">
         <v>1000</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20">
         <v>600</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="7">
+      <c r="K20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="3">
         <v>45384</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P20" t="s">
@@ -1544,46 +1519,46 @@
       <c r="A21" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="4">
-        <v>123456</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G21">
         <v>1000</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21">
         <v>600</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="7">
+      <c r="K21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="3">
         <v>45384</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P21" t="s">
@@ -1594,46 +1569,46 @@
       <c r="A22" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="4">
-        <v>123456</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G22">
         <v>1000</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22">
         <v>600</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="7">
+      <c r="K22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="3">
         <v>45384</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="O22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P22" t="s">
@@ -1735,10 +1710,10 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="9"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="5"/>
     </row>
     <row r="31" ht="14.25">
       <c r="B31" s="2"/>
@@ -1789,34 +1764,34 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" ht="12.75">
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="9"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="5"/>
     </row>
     <row r="36" ht="12.75">
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="9"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="5"/>
     </row>
     <row r="37" ht="12.75">
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="9"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="5"/>
     </row>
     <row r="38" ht="12.75">
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="9"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="5"/>
     </row>
     <row r="39" ht="12.75">
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="9"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="5"/>
     </row>
     <row r="40" ht="12.75">
       <c r="U40" s="1"/>
@@ -1825,9 +1800,9 @@
       <c r="U41" s="1"/>
     </row>
     <row r="42" ht="12.75">
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="9"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="5"/>
     </row>
     <row r="44" ht="14.25">
       <c r="B44" s="2"/>
@@ -1843,10 +1818,10 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="9"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="5"/>
     </row>
     <row r="45" ht="14.25">
       <c r="B45" s="2"/>

--- a/TestData/Web_POS/Order/add_to_cart_order_test_data.xlsx
+++ b/TestData/Web_POS/Order/add_to_cart_order_test_data.xlsx
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Mode</t>
+  </si>
+  <si>
+    <t>tax_invoice</t>
   </si>
   <si>
     <t>ATC_01</t>
@@ -481,8 +484,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="K7">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -564,22 +567,25 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" ht="33.75" customHeight="1">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>123456</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>123456</v>
@@ -591,45 +597,45 @@
         <v>500</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="3">
         <v>45384</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
         <v>123456</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>123456</v>
@@ -641,45 +647,45 @@
         <v>500</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="3">
         <v>45384</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>123456</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>123456</v>
@@ -691,45 +697,45 @@
         <v>300</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="3">
         <v>45384</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>123456</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>123456</v>
@@ -741,45 +747,45 @@
         <v>400</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="3">
         <v>45384</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>123456</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2">
         <v>123456</v>
@@ -791,45 +797,45 @@
         <v>800</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="3">
         <v>45384</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>123456</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
         <v>123456</v>
@@ -841,45 +847,45 @@
         <v>600</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" s="3">
         <v>45384</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
         <v>123456</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2">
         <v>123456</v>
@@ -891,45 +897,45 @@
         <v>600</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8" s="3">
         <v>45384</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>123456</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2">
         <v>123456</v>
@@ -941,45 +947,45 @@
         <v>600</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="3">
         <v>45384</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
         <v>123456</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2">
         <v>123456</v>
@@ -991,45 +997,45 @@
         <v>600</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L10" s="3">
         <v>45384</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="28.5" customHeight="1">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
         <v>123456</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2">
         <v>123456</v>
@@ -1041,45 +1047,45 @@
         <v>400</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L11" s="3">
         <v>45384</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="28.5" customHeight="1">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
         <v>123456</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2">
         <v>123456</v>
@@ -1091,45 +1097,45 @@
         <v>400</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L12" s="3">
         <v>45384</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="28.5" customHeight="1">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
         <v>123456</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2">
         <v>123456</v>
@@ -1141,45 +1147,45 @@
         <v>400</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L13" s="3">
         <v>45384</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2">
         <v>123456</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2">
         <v>123456</v>
@@ -1191,45 +1197,45 @@
         <v>600</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L14" s="3">
         <v>45384</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="28.5" customHeight="1">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2">
         <v>123456</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2">
         <v>123456</v>
@@ -1241,45 +1247,45 @@
         <v>600</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L15" s="3">
         <v>45384</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="28.5" customHeight="1">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2">
         <v>123456</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2">
         <v>123456</v>
@@ -1291,45 +1297,45 @@
         <v>600</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L16" s="3">
         <v>45384</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2">
         <v>123456</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2">
         <v>123456</v>
@@ -1341,45 +1347,45 @@
         <v>600</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L17" s="3">
         <v>45384</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2">
         <v>123456</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2">
         <v>123456</v>
@@ -1391,45 +1397,45 @@
         <v>600</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L18" s="3">
         <v>45384</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2">
         <v>123456</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F19" s="2">
         <v>123456</v>
@@ -1441,45 +1447,45 @@
         <v>600</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L19" s="3">
         <v>45384</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2">
         <v>123456</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2">
         <v>123456</v>
@@ -1491,45 +1497,45 @@
         <v>600</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L20" s="3">
         <v>45384</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2">
         <v>123456</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2">
         <v>123456</v>
@@ -1541,45 +1547,45 @@
         <v>600</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L21" s="3">
         <v>45384</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2">
         <v>123456</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="2">
         <v>123456</v>
@@ -1591,28 +1597,28 @@
         <v>600</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L22" s="3">
         <v>45384</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="14.25">
@@ -1812,7 +1818,7 @@
       <c r="F44" s="2"/>
       <c r="I44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -1831,7 +1837,7 @@
       <c r="F45" s="2"/>
       <c r="I45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -1846,7 +1852,7 @@
       <c r="F46" s="2"/>
       <c r="I46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -1861,7 +1867,7 @@
       <c r="F47" s="2"/>
       <c r="I47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -1876,7 +1882,7 @@
       <c r="F48" s="2"/>
       <c r="I48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -1891,7 +1897,7 @@
       <c r="F49" s="2"/>
       <c r="I49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -1906,7 +1912,7 @@
       <c r="F50" s="2"/>
       <c r="I50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -1921,7 +1927,7 @@
       <c r="F51" s="2"/>
       <c r="I51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -1936,7 +1942,7 @@
       <c r="F52" s="2"/>
       <c r="I52" s="1"/>
       <c r="K52" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -1951,7 +1957,7 @@
       <c r="F53" s="2"/>
       <c r="I53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>

--- a/TestData/Web_POS/Order/add_to_cart_order_test_data.xlsx
+++ b/TestData/Web_POS/Order/add_to_cart_order_test_data.xlsx
@@ -1,223 +1,246 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samarth\PycharmProjects\zwing-qa-automation\TestData\Web_POS\Order\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>TC_Id</t>
-  </si>
-  <si>
-    <t>serial_key</t>
-  </si>
-  <si>
-    <t>username_admin</t>
-  </si>
-  <si>
-    <t>password_admin</t>
-  </si>
-  <si>
-    <t>username_pos</t>
-  </si>
-  <si>
-    <t>password_pos</t>
-  </si>
-  <si>
-    <t>closing_balance</t>
-  </si>
-  <si>
-    <t>opening_balance</t>
-  </si>
-  <si>
-    <t>store_name</t>
-  </si>
-  <si>
-    <t>buy_items</t>
-  </si>
-  <si>
-    <t>get_items</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>tax_invoice</t>
-  </si>
-  <si>
-    <t>ATC_01</t>
-  </si>
-  <si>
-    <t>307260624P3E</t>
-  </si>
-  <si>
-    <t>zwshashank.agrawal@teampureplay.com</t>
-  </si>
-  <si>
-    <t>userone_p1</t>
-  </si>
-  <si>
-    <t>Index9QA</t>
-  </si>
-  <si>
-    <t>8906118410781 : 1</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Dummy</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>ATC_02</t>
-  </si>
-  <si>
-    <t>Alexa67 : 1</t>
-  </si>
-  <si>
-    <t>ATC_03</t>
-  </si>
-  <si>
-    <t>ATC_04</t>
-  </si>
-  <si>
-    <t>ATC_05</t>
-  </si>
-  <si>
-    <t>30726062464i</t>
-  </si>
-  <si>
-    <t>userone_p8</t>
-  </si>
-  <si>
-    <t>ATC_06</t>
-  </si>
-  <si>
-    <t>ATC_07</t>
-  </si>
-  <si>
-    <t>ATC_08</t>
-  </si>
-  <si>
-    <t>ATC_09</t>
-  </si>
-  <si>
-    <t>ATC_10</t>
-  </si>
-  <si>
-    <t>ATC_11</t>
-  </si>
-  <si>
-    <t>ATC_12</t>
-  </si>
-  <si>
-    <t>ATC_13</t>
-  </si>
-  <si>
-    <t>Alexa67 : 1.8</t>
-  </si>
-  <si>
-    <t>ATC_14</t>
-  </si>
-  <si>
-    <t>Alexa67 : 1.9</t>
-  </si>
-  <si>
-    <t>ATC_15</t>
-  </si>
-  <si>
-    <t>Alexa67 : 1.10</t>
-  </si>
-  <si>
-    <t>ATC_16</t>
-  </si>
-  <si>
-    <t>Alexa67 : 1.11</t>
-  </si>
-  <si>
-    <t>ATC_17</t>
-  </si>
-  <si>
-    <t>Alexa67 : 1.12</t>
-  </si>
-  <si>
-    <t>ATC_18</t>
-  </si>
-  <si>
-    <t>Alexa67 : 1.13</t>
-  </si>
-  <si>
-    <t>ATC_19</t>
-  </si>
-  <si>
-    <t>ATC_20</t>
-  </si>
-  <si>
-    <t>ATC_21</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="57">
+  <si>
+    <t xml:space="preserve">TC_Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serial_key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username_pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password_pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closing_balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opening_balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy_items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax_invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307260624P3E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zwshashank.agrawal@teampureplay.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userone_p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index9QA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8906118410781 : 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maharashtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexa67 : 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30726062464i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userone_p8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexa67 : 1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexa67 : 1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexa67 : 1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexa67 : 1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexa67 : 1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexa67 : 1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC_21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF2B579A"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF2B579A"/>
-      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,159 +248,256 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E7E7"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="medium">
         <color rgb="FF2B579A"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF2B579A"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellStyleXfs count="22">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ConditionalFormatStyle" xfId="1"/>
-    <cellStyle name="HeaderStyle" xfId="2"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="ConditionalFormatStyle" xfId="20"/>
+    <cellStyle name="HeaderStyle" xfId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFE7E7E7"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF2B579A"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -385,34 +505,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -425,13 +535,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -441,15 +545,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -457,7 +559,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -465,12 +566,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -479,47 +579,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryRight="0" summaryBelow="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="K7">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="19.28516" customWidth="1"/>
-    <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="19.28516" customWidth="1"/>
-    <col min="5" max="5" width="18.57031" customWidth="1"/>
-    <col min="6" max="6" width="14.85547" customWidth="1"/>
-    <col min="7" max="7" width="16.71094" customWidth="1"/>
-    <col min="8" max="8" width="19.14063" customWidth="1"/>
-    <col min="9" max="9" width="19.14063" customWidth="1"/>
-    <col min="10" max="10" width="39.71094" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.01563" style="1" customWidth="1"/>
-    <col min="12" max="12" width="32" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.71094" customWidth="1"/>
-    <col min="14" max="14" width="10.71094" customWidth="1"/>
-    <col min="15" max="15" width="10.71094" customWidth="1"/>
-    <col min="16" max="16" width="19.14063" customWidth="1"/>
-    <col min="17" max="17" width="19.14063" customWidth="1"/>
-    <col min="18" max="18" width="36.25" style="1" customWidth="1"/>
-    <col min="19" max="19" width="22.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="22.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="23.92969" customWidth="1"/>
-    <col min="22" max="22" width="29.45703" style="1" customWidth="1"/>
-    <col min="23" max="23" width="29.45703" style="1" customWidth="1"/>
-    <col min="24" max="24" width="29.45703" style="1" customWidth="1"/>
-    <col min="25" max="25" width="23.20703" customWidth="1"/>
-    <col min="26" max="26" width="15" customWidth="1"/>
-    <col min="27" max="27" width="18.92969" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="39.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="32.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="36.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="23.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="22" style="1" width="29.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="23.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="18.93"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -537,42 +632,42 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="33.75" customHeight="1">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -581,19 +676,19 @@
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="1" t="n">
         <v>500</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -605,7 +700,7 @@
       <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -617,12 +712,12 @@
       <c r="O2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" t="s">
+    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -631,19 +726,19 @@
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0" t="n">
         <v>500</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -655,7 +750,7 @@
       <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -667,12 +762,12 @@
       <c r="O3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" ht="31.5" customHeight="1">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -681,19 +776,19 @@
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0" t="n">
         <v>300</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -705,7 +800,7 @@
       <c r="K4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M4" s="3" t="s">
@@ -717,12 +812,12 @@
       <c r="O4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -731,19 +826,19 @@
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0" t="n">
         <v>400</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -755,7 +850,7 @@
       <c r="K5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M5" s="3" t="s">
@@ -767,12 +862,12 @@
       <c r="O5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" ht="26.25" customHeight="1">
-      <c r="A6" t="s">
+    <row r="6" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -781,19 +876,19 @@
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0" t="n">
         <v>800</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -805,7 +900,7 @@
       <c r="K6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -817,12 +912,12 @@
       <c r="O6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="30" customHeight="1">
-      <c r="A7" t="s">
+    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -831,19 +926,19 @@
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -855,7 +950,7 @@
       <c r="K7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -867,12 +962,12 @@
       <c r="O7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" ht="31.5" customHeight="1">
-      <c r="A8" t="s">
+    <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -881,19 +976,19 @@
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -905,7 +1000,7 @@
       <c r="K8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -917,12 +1012,12 @@
       <c r="O8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" ht="32.25" customHeight="1">
-      <c r="A9" t="s">
+    <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -931,19 +1026,19 @@
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -955,7 +1050,7 @@
       <c r="K9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -967,12 +1062,12 @@
       <c r="O9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="28.5" customHeight="1">
-      <c r="A10" t="s">
+    <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -981,19 +1076,19 @@
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G10" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1005,7 +1100,7 @@
       <c r="K10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M10" s="3" t="s">
@@ -1017,12 +1112,12 @@
       <c r="O10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" ht="28.5" customHeight="1">
-      <c r="A11" t="s">
+    <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1031,31 +1126,31 @@
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G11" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0" t="n">
         <v>400</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -1067,12 +1162,12 @@
       <c r="O11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" ht="28.5" customHeight="1">
-      <c r="A12" t="s">
+    <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1081,31 +1176,31 @@
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0" t="n">
         <v>400</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -1117,12 +1212,12 @@
       <c r="O12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" ht="28.5" customHeight="1">
-      <c r="A13" t="s">
+    <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1131,19 +1226,19 @@
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0" t="n">
         <v>400</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1155,7 +1250,7 @@
       <c r="K13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M13" s="3" t="s">
@@ -1167,12 +1262,12 @@
       <c r="O13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" ht="28.5" customHeight="1">
-      <c r="A14" t="s">
+    <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1181,19 +1276,19 @@
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1205,7 +1300,7 @@
       <c r="K14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -1217,12 +1312,12 @@
       <c r="O14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="28.5" customHeight="1">
-      <c r="A15" t="s">
+    <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1231,19 +1326,19 @@
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -1255,7 +1350,7 @@
       <c r="K15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -1267,12 +1362,12 @@
       <c r="O15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" ht="28.5" customHeight="1">
-      <c r="A16" t="s">
+    <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1281,19 +1376,19 @@
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1305,7 +1400,7 @@
       <c r="K16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -1317,12 +1412,12 @@
       <c r="O16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" ht="14.25">
-      <c r="A17" t="s">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1331,19 +1426,19 @@
       <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -1355,7 +1450,7 @@
       <c r="K17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -1367,12 +1462,12 @@
       <c r="O17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" ht="14.25">
-      <c r="A18" t="s">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1381,19 +1476,19 @@
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G18" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -1405,7 +1500,7 @@
       <c r="K18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -1417,12 +1512,12 @@
       <c r="O18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" ht="14.25">
-      <c r="A19" t="s">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1431,19 +1526,19 @@
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G19" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -1455,7 +1550,7 @@
       <c r="K19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -1467,12 +1562,12 @@
       <c r="O19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" ht="14.25">
-      <c r="A20" t="s">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1481,19 +1576,19 @@
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G20" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1505,7 +1600,7 @@
       <c r="K20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -1517,12 +1612,12 @@
       <c r="O20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" ht="14.25">
-      <c r="A21" t="s">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1531,19 +1626,19 @@
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G21">
+      <c r="F21" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G21" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -1555,7 +1650,7 @@
       <c r="K21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -1567,12 +1662,12 @@
       <c r="O21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" ht="14.25">
-      <c r="A22" t="s">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1581,19 +1676,19 @@
       <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G22">
+      <c r="F22" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G22" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -1605,7 +1700,7 @@
       <c r="K22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -1617,11 +1712,11 @@
       <c r="O22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" ht="14.25">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1633,7 +1728,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" ht="14.25">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1645,7 +1740,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" ht="14.25">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1657,7 +1752,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" ht="14.25">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1669,7 +1764,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" ht="14.25">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1681,7 +1776,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" ht="14.25">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1693,7 +1788,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" ht="14.25">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1705,7 +1800,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" ht="14.25">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1721,7 +1816,7 @@
       <c r="T30" s="4"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" ht="14.25">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1733,7 +1828,7 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" ht="14.25">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1745,7 +1840,7 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" ht="14.25">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1757,7 +1852,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" ht="14.25">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1769,48 +1864,48 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" ht="12.75">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" ht="12.75">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" ht="12.75">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" ht="12.75">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" ht="12.75">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="5"/>
     </row>
-    <row r="40" ht="12.75">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U40" s="1"/>
     </row>
-    <row r="41" ht="12.75">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U41" s="1"/>
     </row>
-    <row r="42" ht="12.75">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="5"/>
     </row>
-    <row r="44" ht="14.25">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1829,7 +1924,7 @@
       <c r="T44" s="4"/>
       <c r="U44" s="5"/>
     </row>
-    <row r="45" ht="14.25">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1844,7 +1939,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" ht="14.25">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1859,7 +1954,7 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" ht="14.25">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1874,7 +1969,7 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" ht="14.25">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1889,7 +1984,7 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" ht="14.25">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1904,7 +1999,7 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" ht="14.25">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1919,7 +2014,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" ht="14.25">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1934,7 +2029,7 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" ht="14.25">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1949,7 +2044,7 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" ht="14.25">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1964,280 +2059,241 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" ht="14.25">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="1"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" ht="14.25">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="I55" s="1"/>
-      <c r="K55" s="1"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" ht="14.25">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="I56" s="1"/>
-      <c r="K56" s="1"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" ht="14.25">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="I57" s="1"/>
-      <c r="K57" s="1"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" ht="14.25">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="I58" s="1"/>
-      <c r="K58" s="1"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" ht="14.25">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="I59" s="1"/>
-      <c r="K59" s="1"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" ht="14.25">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="I60" s="1"/>
-      <c r="K60" s="1"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" ht="14.25">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="I61" s="1"/>
-      <c r="K61" s="1"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" ht="14.25">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="I62" s="1"/>
-      <c r="K62" s="1"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" ht="14.25">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="I63" s="1"/>
-      <c r="K63" s="1"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" ht="14.25">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="I64" s="1"/>
-      <c r="K64" s="1"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" ht="14.25">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="I65" s="1"/>
-      <c r="K65" s="1"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" ht="14.25">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="I66" s="1"/>
-      <c r="K66" s="1"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" ht="14.25">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="I67" s="1"/>
-      <c r="K67" s="1"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" ht="14.25">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="I68" s="1"/>
-      <c r="K68" s="1"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" ht="14.25">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="I69" s="1"/>
-      <c r="K69" s="1"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-    </row>
-    <row r="71" ht="12.75">
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-    </row>
-    <row r="72" ht="12.75">
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-    </row>
-    <row r="73" ht="12.75">
-      <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
-    </row>
-    <row r="74" ht="12.75">
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-    </row>
-    <row r="75" ht="12.75">
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
-    </row>
-    <row r="76" ht="12.75">
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-    </row>
-    <row r="77" ht="12.75"/>
-    <row r="78" ht="12.75"/>
-    <row r="79" ht="12.75"/>
-    <row r="80" ht="12.75"/>
-    <row r="81" ht="12.75"/>
-    <row r="82" ht="12.75"/>
-    <row r="83" ht="12.75"/>
-    <row r="84" ht="12.75"/>
-    <row r="85" ht="12.75"/>
-    <row r="86" ht="12.75"/>
-    <row r="87" ht="12.75"/>
-    <row r="88" ht="12.75"/>
-    <row r="89" ht="12.75"/>
-    <row r="90" ht="12.75"/>
-    <row r="91" ht="12.75"/>
-    <row r="92" ht="12.75"/>
-    <row r="93" ht="12.75"/>
-    <row r="94" ht="12.75"/>
-    <row r="95" ht="12.75"/>
-    <row r="96" ht="12.75"/>
-    <row r="97" ht="12.75"/>
-    <row r="98" ht="12.75"/>
-    <row r="99" ht="12.75"/>
-    <row r="100" ht="12.75"/>
-    <row r="101" ht="12.75"/>
-    <row r="102" ht="12.75"/>
-    <row r="103" ht="12.75"/>
-    <row r="104" ht="12.75"/>
-    <row r="105" ht="12.75"/>
-    <row r="106" ht="12.75"/>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <headerFooter alignWithMargins="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>